--- a/results_prioritized_layout2_5agents.xlsx
+++ b/results_prioritized_layout2_5agents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woutersouge/Documents/LR Master/AE4422 - Agent Based/AE4422/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8B9C51-BFAA-2241-A251-0F07153A084C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EB09DD-7F88-B743-A691-6FDFE3E0AC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="760" windowWidth="28040" windowHeight="17260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="760" windowWidth="28040" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_10runs" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10833" uniqueCount="2847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10839" uniqueCount="2847">
   <si>
     <t xml:space="preserve"> 0.002586841583251953</t>
   </si>
@@ -9423,7 +9423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -9970,6 +9970,24 @@
       <c r="E14" t="s">
         <v>1</v>
       </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -9988,6 +10006,28 @@
       <c r="E15" t="s">
         <v>1</v>
       </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f>COUNTIF($B:$B,G15)</f>
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <f>AVERAGEIF($B:$B,G15,$C:$C)</f>
+        <v>55</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>J15^2</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>J15/I15</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -10006,8 +10046,31 @@
       <c r="E16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f>G15+1</f>
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:H24" si="7">COUNTIF($B:$B,G16)</f>
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGEIF($B:$B,G16,$C:$C)</f>
+        <v>59</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16:K24" si="8">J16^2</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:L24" si="9">J16/I16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>644</v>
       </c>
@@ -10024,8 +10087,31 @@
       <c r="E17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <f t="shared" ref="G17:G24" si="10">G16+1</f>
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <f>AVERAGEIF($B:$B,G17,$C:$C)</f>
+        <v>67</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>645</v>
       </c>
@@ -10042,8 +10128,31 @@
       <c r="E18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <f>AVERAGEIF($B:$B,G18,$C:$C)</f>
+        <v>62</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>647</v>
       </c>
@@ -10060,8 +10169,31 @@
       <c r="E19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <f>AVERAGEIF($B:$B,G19,$C:$C)</f>
+        <v>89</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>649</v>
       </c>
@@ -10078,8 +10210,31 @@
       <c r="E20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <f>AVERAGEIF($B:$B,G20,$C:$C)</f>
+        <v>42</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>651</v>
       </c>
@@ -10096,8 +10251,31 @@
       <c r="E21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGEIF($B:$B,G21,$C:$C)</f>
+        <v>62</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>636</v>
       </c>
@@ -10114,8 +10292,31 @@
       <c r="E22" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <f>AVERAGEIF($B:$B,G22,$C:$C)</f>
+        <v>56</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>638</v>
       </c>
@@ -10132,8 +10333,31 @@
       <c r="E23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <f>AVERAGEIF($B:$B,G23,$C:$C)</f>
+        <v>60</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>639</v>
       </c>
@@ -10150,8 +10374,31 @@
       <c r="E24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <f>AVERAGEIF($B:$B,G24,$C:$C)</f>
+        <v>29</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>641</v>
       </c>
@@ -10169,7 +10416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>642</v>
       </c>
@@ -10187,7 +10434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>644</v>
       </c>
@@ -10205,7 +10452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>645</v>
       </c>
@@ -10223,7 +10470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>647</v>
       </c>
@@ -10241,7 +10488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>649</v>
       </c>
@@ -10259,7 +10506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>651</v>
       </c>
@@ -10277,7 +10524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>636</v>
       </c>
@@ -10894,7 +11141,7 @@
         <v>642</v>
       </c>
       <c r="B66" s="1" t="str">
-        <f t="shared" ref="B66:B101" si="7">MID(A66,33,LEN(A66) - 36)</f>
+        <f t="shared" ref="B66:B101" si="11">MID(A66,33,LEN(A66) - 36)</f>
         <v>4</v>
       </c>
       <c r="C66" s="2">
@@ -10912,7 +11159,7 @@
         <v>644</v>
       </c>
       <c r="B67" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C67" s="2">
@@ -10930,7 +11177,7 @@
         <v>645</v>
       </c>
       <c r="B68" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C68" s="2">
@@ -10948,7 +11195,7 @@
         <v>647</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="C69" s="2">
@@ -10966,7 +11213,7 @@
         <v>649</v>
       </c>
       <c r="B70" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="C70" s="2">
@@ -10984,7 +11231,7 @@
         <v>651</v>
       </c>
       <c r="B71" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="C71" s="2">
@@ -11002,7 +11249,7 @@
         <v>636</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C72" s="2">
@@ -11020,7 +11267,7 @@
         <v>638</v>
       </c>
       <c r="B73" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="C73" s="2">
@@ -11038,7 +11285,7 @@
         <v>639</v>
       </c>
       <c r="B74" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C74" s="2">
@@ -11056,7 +11303,7 @@
         <v>641</v>
       </c>
       <c r="B75" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C75" s="2">
@@ -11074,7 +11321,7 @@
         <v>642</v>
       </c>
       <c r="B76" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C76" s="2">
@@ -11092,7 +11339,7 @@
         <v>644</v>
       </c>
       <c r="B77" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C77" s="2">
@@ -11110,7 +11357,7 @@
         <v>645</v>
       </c>
       <c r="B78" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C78" s="2">
@@ -11128,7 +11375,7 @@
         <v>647</v>
       </c>
       <c r="B79" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="C79" s="2">
@@ -11146,7 +11393,7 @@
         <v>649</v>
       </c>
       <c r="B80" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="C80" s="2">
@@ -11164,7 +11411,7 @@
         <v>651</v>
       </c>
       <c r="B81" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="C81" s="2">
@@ -11182,7 +11429,7 @@
         <v>636</v>
       </c>
       <c r="B82" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C82" s="2">
@@ -11200,7 +11447,7 @@
         <v>638</v>
       </c>
       <c r="B83" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="C83" s="2">
@@ -11218,7 +11465,7 @@
         <v>639</v>
       </c>
       <c r="B84" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C84" s="2">
@@ -11236,7 +11483,7 @@
         <v>641</v>
       </c>
       <c r="B85" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C85" s="2">
@@ -11254,7 +11501,7 @@
         <v>642</v>
       </c>
       <c r="B86" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C86" s="2">
@@ -11272,7 +11519,7 @@
         <v>644</v>
       </c>
       <c r="B87" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C87" s="2">
@@ -11290,7 +11537,7 @@
         <v>645</v>
       </c>
       <c r="B88" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C88" s="2">
@@ -11308,7 +11555,7 @@
         <v>647</v>
       </c>
       <c r="B89" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="C89" s="2">
@@ -11326,7 +11573,7 @@
         <v>649</v>
       </c>
       <c r="B90" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="C90" s="2">
@@ -11344,7 +11591,7 @@
         <v>651</v>
       </c>
       <c r="B91" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="C91" s="2">
@@ -11362,7 +11609,7 @@
         <v>636</v>
       </c>
       <c r="B92" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C92" s="2">
@@ -11380,7 +11627,7 @@
         <v>638</v>
       </c>
       <c r="B93" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="C93" s="2">
@@ -11398,7 +11645,7 @@
         <v>639</v>
       </c>
       <c r="B94" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C94" s="2">
@@ -11416,7 +11663,7 @@
         <v>641</v>
       </c>
       <c r="B95" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C95" s="2">
@@ -11434,7 +11681,7 @@
         <v>642</v>
       </c>
       <c r="B96" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C96" s="2">
@@ -11452,7 +11699,7 @@
         <v>644</v>
       </c>
       <c r="B97" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C97" s="2">
@@ -11470,7 +11717,7 @@
         <v>645</v>
       </c>
       <c r="B98" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C98" s="2">
@@ -11488,7 +11735,7 @@
         <v>647</v>
       </c>
       <c r="B99" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="C99" s="2">
@@ -11506,7 +11753,7 @@
         <v>649</v>
       </c>
       <c r="B100" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="C100" s="2">
@@ -11524,7 +11771,7 @@
         <v>651</v>
       </c>
       <c r="B101" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="C101" s="2">
@@ -41663,8 +41910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M2501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
